--- a/sprint1/ProductSprint1-Backlogs-PortableHospital-C3-G74-Grupo3.xlsx
+++ b/sprint1/ProductSprint1-Backlogs-PortableHospital-C3-G74-Grupo3.xlsx
@@ -1,16 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\estudios\mintic\ProgWebMov\Ciclo3\portable-hospital\Proyecto_C3_G3_PortableHospital\sprint1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="portable-hospital" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="portable-hospital" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -20,426 +24,422 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="130">
-  <si>
-    <t xml:space="preserve">portable hospital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Backlog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar definición del proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">juanbb025@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar alcance del proyecto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dairo ortega p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar el product backlog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yersonestebanroldantorres@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Realizar el sprint1 backlog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">andres.camargo@correounivalle.edu.co</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir herramienta de gestión de tareas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Definir SCRUM Master</t>
-  </si>
-  <si>
-    <t xml:space="preserve">seth, andres.camargo@correounivalle.edu.co, yersonestebanroldantorres@gmail.com, dairo ortega p, juanbb025@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creación cuenta Monday</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear tablero de control (Kanban) con todas las actividades</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear diagrama Gantt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creacion de repositorio GITHUB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear diagrama de clases</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear diagrama de casos de uso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear diagrama ER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instalación configuración de servidor MySQLación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instalacion configuración de servidor Apache</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instalación configuración Java en servidor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creación de la base de datos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creación de base de clases y formularios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creación de formulario de ingreso a la aplicación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear formulario creación de historia clinica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear formulario creación de paciente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear formulario creación de medico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear formulario creación de eps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear formulario creación de cita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear formulario creación de consulta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear formulario creación de antecendentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear formulario creación de autorización</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear formulario creación de orden médica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear formulario creación de interconsultas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear formulario consulta de historia clinica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear formulario consulta de paciente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear formulario consulta de medico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear formulario consulta de eps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear formulario consulta de cita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear formulario consulta de consulta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear formulario consulta de antecendentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear formulario consulta de autorización</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear formulario consulta de orden médica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crear formulario consulta de interconsultas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar diseño al formulario de ingreso a la aplicación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar diseño al  formulario creación de historia clinica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar diseño al  formulario creación de paciente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar diseño al formulario creación de medico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar diseño al formulario creación de eps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar diseño al formulario creación de cita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar diseño al formulario creación de consulta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar diseño al formulario creación de antecendentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar diseño al formulario creación de autorización</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar diseño al formulario creación de orden médica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar diseño al formulario creación de interconsultas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar diseño al  formulario consulta de historia clinica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar diseño al  formulario consulta de paciente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar diseño al formulario consulta de medico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar diseño al formulario consulta de eps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar diseño al formulario consulta de cita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar diseño al formulario consulta de consulta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar diseño al formulario consulta de antecendentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar diseño al formulario consulta de autorización</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar diseño al formulario consulta de orden médica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar diseño al formulario consulta de interconsultas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar javascript al formulario de ingreso a la aplicación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar javascript al  formulario creación de historia clinica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar javascript al  formulario creación de paciente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar javascript al formulario creación de medico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar javascript al formulario creación de eps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar javascript al formulario creación de cita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar javascript al formulario creación de consulta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar javascript al formulario creación de antecendentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar javascript al formulario creación de autorización</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar javascript al formulario creación de orden médica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar javascript al formulario creación de interconsultas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar javascript al  formulario consulta de historia clinica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar javascript al  formulario consulta de paciente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar javascript al formulario consulta de medico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar javascript al formulario consulta de eps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar javascript al formulario consulta de cita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar javascript al formulario consulta de consulta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar javascript al formulario consulta de antecendentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar javascript al formulario consulta de autorización</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar javascript al formulario consulta de orden médica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar javascript al formulario consulta de interconsultas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardar en DB la info de historia clinica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardar en DB la info de paciente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardar en DB la info de medico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardar en DB la info de eps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardar en DB la info de cita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardar en DB la info de consulta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardar en DB la info de antecendentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardar en DB la info de autorización</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardar en DB la info de orden médica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guardar en DB la info de interconsultas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar framework al formulario de creación de historia clinica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar framework al formulario de creación de paciente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar framework al formulario de creación de medico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar framework al formulario de creación de eps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar framework al formulario de creación de cita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar framework al formulario de creación de consulta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar framework al formulario de creación de antecendentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar framework al formulario de creación de autorización</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar framework al formulario de creación de orden médica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar framework al formulario de creación de interconsultas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar framework al formulario de consulta de historia clinica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar framework al formulario de consulta de paciente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar framework al formulario de consulta de medico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar framework al formulario de consulta de eps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar framework al formulario de consulta de cita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar framework al formulario de consulta de consulta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar framework al formulario de consulta de antecendentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar framework al formulario de consulta de autorización</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar framework al formulario de consulta de orden médica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adicionar framework al formulario de consulta de interconsultas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Despliegue de la aplicación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrega de la versión beta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-20 to 2022-07-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-07-28 to 2022-08-06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sprint1 backlog</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="134">
+  <si>
+    <t>portable hospital</t>
+  </si>
+  <si>
+    <t>Product Backlog</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Realizar definición del proyecto</t>
+  </si>
+  <si>
+    <t>juanbb025@gmail.com</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Realizar alcance del proyecto</t>
+  </si>
+  <si>
+    <t>dairo ortega p</t>
+  </si>
+  <si>
+    <t>Realizar el product backlog</t>
+  </si>
+  <si>
+    <t>yersonestebanroldantorres@gmail.com</t>
+  </si>
+  <si>
+    <t>Realizar el sprint1 backlog</t>
+  </si>
+  <si>
+    <t>andres.camargo@correounivalle.edu.co</t>
+  </si>
+  <si>
+    <t>Definir herramienta de gestión de tareas</t>
+  </si>
+  <si>
+    <t>seth</t>
+  </si>
+  <si>
+    <t>Definir SCRUM Master</t>
+  </si>
+  <si>
+    <t>seth, andres.camargo@correounivalle.edu.co, yersonestebanroldantorres@gmail.com, dairo ortega p, juanbb025@gmail.com</t>
+  </si>
+  <si>
+    <t>Creación cuenta Monday</t>
+  </si>
+  <si>
+    <t>Crear tablero de control (Kanban) con todas las actividades</t>
+  </si>
+  <si>
+    <t>Crear diagrama Gantt</t>
+  </si>
+  <si>
+    <t>Creacion de repositorio GITHUB</t>
+  </si>
+  <si>
+    <t>Crear diagrama de clases</t>
+  </si>
+  <si>
+    <t>Crear diagrama de casos de uso</t>
+  </si>
+  <si>
+    <t>Crear diagrama ER</t>
+  </si>
+  <si>
+    <t>Instalación configuración de servidor MySQLación</t>
+  </si>
+  <si>
+    <t>Instalacion configuración de servidor Apache</t>
+  </si>
+  <si>
+    <t>Instalación configuración Java en servidor</t>
+  </si>
+  <si>
+    <t>Creación de la base de datos</t>
+  </si>
+  <si>
+    <t>Creación de base de clases y formularios</t>
+  </si>
+  <si>
+    <t>Creación de formulario de ingreso a la aplicación</t>
+  </si>
+  <si>
+    <t>Crear formulario creación de historia clinica</t>
+  </si>
+  <si>
+    <t>Crear formulario creación de paciente</t>
+  </si>
+  <si>
+    <t>Crear formulario creación de medico</t>
+  </si>
+  <si>
+    <t>Crear formulario creación de eps</t>
+  </si>
+  <si>
+    <t>Crear formulario creación de cita</t>
+  </si>
+  <si>
+    <t>Crear formulario creación de consulta</t>
+  </si>
+  <si>
+    <t>Crear formulario creación de antecendentes</t>
+  </si>
+  <si>
+    <t>Crear formulario creación de autorización</t>
+  </si>
+  <si>
+    <t>Crear formulario creación de orden médica</t>
+  </si>
+  <si>
+    <t>Crear formulario creación de interconsultas</t>
+  </si>
+  <si>
+    <t>Crear formulario consulta de historia clinica</t>
+  </si>
+  <si>
+    <t>Crear formulario consulta de paciente</t>
+  </si>
+  <si>
+    <t>Crear formulario consulta de medico</t>
+  </si>
+  <si>
+    <t>Crear formulario consulta de eps</t>
+  </si>
+  <si>
+    <t>Crear formulario consulta de cita</t>
+  </si>
+  <si>
+    <t>Crear formulario consulta de consulta</t>
+  </si>
+  <si>
+    <t>Crear formulario consulta de antecendentes</t>
+  </si>
+  <si>
+    <t>Crear formulario consulta de autorización</t>
+  </si>
+  <si>
+    <t>Crear formulario consulta de orden médica</t>
+  </si>
+  <si>
+    <t>Crear formulario consulta de interconsultas</t>
+  </si>
+  <si>
+    <t>Adicionar diseño al formulario de ingreso a la aplicación</t>
+  </si>
+  <si>
+    <t>Adicionar diseño al  formulario creación de historia clinica</t>
+  </si>
+  <si>
+    <t>Adicionar diseño al  formulario creación de paciente</t>
+  </si>
+  <si>
+    <t>Adicionar diseño al formulario creación de medico</t>
+  </si>
+  <si>
+    <t>Adicionar diseño al formulario creación de eps</t>
+  </si>
+  <si>
+    <t>Adicionar diseño al formulario creación de cita</t>
+  </si>
+  <si>
+    <t>Adicionar diseño al formulario creación de consulta</t>
+  </si>
+  <si>
+    <t>Adicionar diseño al formulario creación de antecendentes</t>
+  </si>
+  <si>
+    <t>Adicionar diseño al formulario creación de autorización</t>
+  </si>
+  <si>
+    <t>Adicionar diseño al formulario creación de orden médica</t>
+  </si>
+  <si>
+    <t>Adicionar diseño al formulario creación de interconsultas</t>
+  </si>
+  <si>
+    <t>Adicionar diseño al  formulario consulta de historia clinica</t>
+  </si>
+  <si>
+    <t>Adicionar diseño al  formulario consulta de paciente</t>
+  </si>
+  <si>
+    <t>Adicionar diseño al formulario consulta de medico</t>
+  </si>
+  <si>
+    <t>Adicionar diseño al formulario consulta de eps</t>
+  </si>
+  <si>
+    <t>Adicionar diseño al formulario consulta de cita</t>
+  </si>
+  <si>
+    <t>Adicionar diseño al formulario consulta de consulta</t>
+  </si>
+  <si>
+    <t>Adicionar diseño al formulario consulta de antecendentes</t>
+  </si>
+  <si>
+    <t>Adicionar diseño al formulario consulta de autorización</t>
+  </si>
+  <si>
+    <t>Adicionar diseño al formulario consulta de orden médica</t>
+  </si>
+  <si>
+    <t>Adicionar diseño al formulario consulta de interconsultas</t>
+  </si>
+  <si>
+    <t>Adicionar javascript al formulario de ingreso a la aplicación</t>
+  </si>
+  <si>
+    <t>Adicionar javascript al  formulario creación de historia clinica</t>
+  </si>
+  <si>
+    <t>Adicionar javascript al  formulario creación de paciente</t>
+  </si>
+  <si>
+    <t>Adicionar javascript al formulario creación de medico</t>
+  </si>
+  <si>
+    <t>Adicionar javascript al formulario creación de eps</t>
+  </si>
+  <si>
+    <t>Adicionar javascript al formulario creación de cita</t>
+  </si>
+  <si>
+    <t>Adicionar javascript al formulario creación de consulta</t>
+  </si>
+  <si>
+    <t>Adicionar javascript al formulario creación de antecendentes</t>
+  </si>
+  <si>
+    <t>Adicionar javascript al formulario creación de autorización</t>
+  </si>
+  <si>
+    <t>Adicionar javascript al formulario creación de orden médica</t>
+  </si>
+  <si>
+    <t>Adicionar javascript al formulario creación de interconsultas</t>
+  </si>
+  <si>
+    <t>Adicionar javascript al  formulario consulta de historia clinica</t>
+  </si>
+  <si>
+    <t>Adicionar javascript al  formulario consulta de paciente</t>
+  </si>
+  <si>
+    <t>Adicionar javascript al formulario consulta de medico</t>
+  </si>
+  <si>
+    <t>Adicionar javascript al formulario consulta de eps</t>
+  </si>
+  <si>
+    <t>Adicionar javascript al formulario consulta de cita</t>
+  </si>
+  <si>
+    <t>Adicionar javascript al formulario consulta de consulta</t>
+  </si>
+  <si>
+    <t>Adicionar javascript al formulario consulta de antecendentes</t>
+  </si>
+  <si>
+    <t>Adicionar javascript al formulario consulta de autorización</t>
+  </si>
+  <si>
+    <t>Adicionar javascript al formulario consulta de orden médica</t>
+  </si>
+  <si>
+    <t>Adicionar javascript al formulario consulta de interconsultas</t>
+  </si>
+  <si>
+    <t>Guardar en DB la info de historia clinica</t>
+  </si>
+  <si>
+    <t>Guardar en DB la info de paciente</t>
+  </si>
+  <si>
+    <t>Guardar en DB la info de medico</t>
+  </si>
+  <si>
+    <t>Guardar en DB la info de eps</t>
+  </si>
+  <si>
+    <t>Guardar en DB la info de cita</t>
+  </si>
+  <si>
+    <t>Guardar en DB la info de consulta</t>
+  </si>
+  <si>
+    <t>Guardar en DB la info de antecendentes</t>
+  </si>
+  <si>
+    <t>Guardar en DB la info de autorización</t>
+  </si>
+  <si>
+    <t>Guardar en DB la info de orden médica</t>
+  </si>
+  <si>
+    <t>Guardar en DB la info de interconsultas</t>
+  </si>
+  <si>
+    <t>Adicionar framework al formulario de creación de historia clinica</t>
+  </si>
+  <si>
+    <t>Adicionar framework al formulario de creación de paciente</t>
+  </si>
+  <si>
+    <t>Adicionar framework al formulario de creación de medico</t>
+  </si>
+  <si>
+    <t>Adicionar framework al formulario de creación de eps</t>
+  </si>
+  <si>
+    <t>Adicionar framework al formulario de creación de cita</t>
+  </si>
+  <si>
+    <t>Adicionar framework al formulario de creación de consulta</t>
+  </si>
+  <si>
+    <t>Adicionar framework al formulario de creación de antecendentes</t>
+  </si>
+  <si>
+    <t>Adicionar framework al formulario de creación de autorización</t>
+  </si>
+  <si>
+    <t>Adicionar framework al formulario de creación de orden médica</t>
+  </si>
+  <si>
+    <t>Adicionar framework al formulario de creación de interconsultas</t>
+  </si>
+  <si>
+    <t>Adicionar framework al formulario de consulta de historia clinica</t>
+  </si>
+  <si>
+    <t>Adicionar framework al formulario de consulta de paciente</t>
+  </si>
+  <si>
+    <t>Adicionar framework al formulario de consulta de medico</t>
+  </si>
+  <si>
+    <t>Adicionar framework al formulario de consulta de eps</t>
+  </si>
+  <si>
+    <t>Adicionar framework al formulario de consulta de cita</t>
+  </si>
+  <si>
+    <t>Adicionar framework al formulario de consulta de consulta</t>
+  </si>
+  <si>
+    <t>Adicionar framework al formulario de consulta de antecendentes</t>
+  </si>
+  <si>
+    <t>Adicionar framework al formulario de consulta de autorización</t>
+  </si>
+  <si>
+    <t>Adicionar framework al formulario de consulta de orden médica</t>
+  </si>
+  <si>
+    <t>Adicionar framework al formulario de consulta de interconsultas</t>
+  </si>
+  <si>
+    <t>Despliegue de la aplicación</t>
+  </si>
+  <si>
+    <t>Entrega de la versión beta</t>
+  </si>
+  <si>
+    <t>2022-07-20 to 2022-07-28</t>
+  </si>
+  <si>
+    <t>2022-07-28 to 2022-08-06</t>
+  </si>
+  <si>
+    <t>Sprint1 backlog</t>
+  </si>
+  <si>
+    <t>Sprint2 backlog</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>Crear arquitectura web</t>
+  </si>
+  <si>
+    <t>Definicion de plantillas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -448,14 +448,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="15"/>
       <name val="Arial"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FF579BFC"/>
       <name val="Arial"/>
@@ -463,7 +463,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -478,7 +478,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="14"/>
       <color rgb="FFA25DDC"/>
       <name val="Arial"/>
@@ -507,26 +507,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC4C4C4"/>
-        <bgColor rgb="FFD6D6D6"/>
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEFEFEF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor rgb="FFD6D6D6"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thick">
         <color rgb="FF00B461"/>
       </left>
@@ -541,7 +541,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thick">
         <color rgb="FFB0B0B0"/>
       </left>
@@ -557,98 +557,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Normal" xfId="20"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -707,14 +662,30 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="twoCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>360</xdr:colOff>
@@ -729,13 +700,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="" descr="">
-          <a:hlinkClick r:id="rId1"/>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </xdr:cNvPr>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
@@ -756,36 +727,294 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E144"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="false" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A121" activeCellId="0" sqref="A121:E130"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.4609375" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="44.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="83.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="39.81"/>
+    <col min="1" max="1" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="83.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="5" width="39.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -802,7 +1031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -812,14 +1041,14 @@
       <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="n">
+      <c r="D4" s="8">
         <v>44762</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="8">
         <v>44770</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -829,14 +1058,14 @@
       <c r="C5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="8">
         <v>44762</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="8">
         <v>44770</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
@@ -846,14 +1075,14 @@
       <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="8">
         <v>44762</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="8">
         <v>44770</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -863,14 +1092,14 @@
       <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="8">
         <v>44762</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="8">
         <v>44770</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
@@ -880,14 +1109,14 @@
       <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="8">
         <v>44762</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="8">
         <v>44770</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
@@ -897,14 +1126,14 @@
       <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="8">
         <v>44762</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="8">
         <v>44770</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
@@ -914,14 +1143,14 @@
       <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="8">
         <v>44762</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="8">
         <v>44770</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>21</v>
       </c>
@@ -931,14 +1160,14 @@
       <c r="C11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="8">
         <v>44762</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="8">
         <v>44770</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -948,14 +1177,14 @@
       <c r="C12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="8">
         <v>44762</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="8">
         <v>44770</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>23</v>
       </c>
@@ -965,14 +1194,14 @@
       <c r="C13" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="8">
         <v>44762</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="8">
         <v>44770</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>24</v>
       </c>
@@ -982,14 +1211,14 @@
       <c r="C14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="8">
         <v>44770</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="8">
         <v>44779</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
@@ -999,14 +1228,14 @@
       <c r="C15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="8">
         <v>44770</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="8">
         <v>44779</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>26</v>
       </c>
@@ -1016,1131 +1245,1531 @@
       <c r="C16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="8">
         <v>44770</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="8">
         <v>44779</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="8">
+        <v>44771</v>
+      </c>
+      <c r="E17" s="8">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="8">
+        <v>44771</v>
+      </c>
+      <c r="E18" s="8">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="C19" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" s="8">
+        <v>44771</v>
+      </c>
+      <c r="E19" s="8">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="C20" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="8">
+        <v>44771</v>
+      </c>
+      <c r="E20" s="8">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+      <c r="C21" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="8">
+        <v>44771</v>
+      </c>
+      <c r="E21" s="8">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="9"/>
+      <c r="C22" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B23" s="6"/>
-      <c r="C23" s="9"/>
+      <c r="C23" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" s="6"/>
-      <c r="C24" s="9"/>
+      <c r="C24" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="6"/>
-      <c r="C25" s="9"/>
+      <c r="C25" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="9"/>
+      <c r="C26" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="9"/>
+      <c r="C27" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="9"/>
+      <c r="C28" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="C29" s="9"/>
+      <c r="C29" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B30" s="6"/>
-      <c r="C30" s="9"/>
+      <c r="C30" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" s="6"/>
-      <c r="C31" s="9"/>
+      <c r="C31" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B32" s="6"/>
-      <c r="C32" s="9"/>
+      <c r="C32" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
     </row>
-    <row r="33" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B33" s="6"/>
-      <c r="C33" s="9"/>
+      <c r="C33" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" s="6"/>
-      <c r="C34" s="9"/>
+      <c r="C34" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
     </row>
-    <row r="35" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B35" s="6"/>
-      <c r="C35" s="9"/>
+      <c r="C35" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36" s="6"/>
-      <c r="C36" s="9"/>
+      <c r="C36" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
     </row>
-    <row r="37" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" s="6"/>
-      <c r="C37" s="9"/>
+      <c r="C37" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38" s="6"/>
-      <c r="C38" s="9"/>
+      <c r="C38" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
     </row>
-    <row r="39" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39" s="6"/>
-      <c r="C39" s="9"/>
+      <c r="C39" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B40" s="6"/>
-      <c r="C40" s="9"/>
+      <c r="C40" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
     </row>
-    <row r="41" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B41" s="6"/>
-      <c r="C41" s="9"/>
+      <c r="C41" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
     </row>
-    <row r="42" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B42" s="6"/>
-      <c r="C42" s="9"/>
+      <c r="C42" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B43" s="6"/>
-      <c r="C43" s="9"/>
+      <c r="C43" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
     </row>
-    <row r="44" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B44" s="6"/>
-      <c r="C44" s="9"/>
+      <c r="C44" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B45" s="6"/>
-      <c r="C45" s="9"/>
+      <c r="C45" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
     </row>
-    <row r="46" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46" s="6"/>
-      <c r="C46" s="9"/>
+      <c r="C46" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B47" s="6"/>
-      <c r="C47" s="9"/>
+      <c r="C47" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
     </row>
-    <row r="48" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B48" s="6"/>
-      <c r="C48" s="9"/>
+      <c r="C48" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
     </row>
-    <row r="49" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B49" s="6"/>
-      <c r="C49" s="9"/>
+      <c r="C49" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
     </row>
-    <row r="50" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B50" s="6"/>
-      <c r="C50" s="9"/>
+      <c r="C50" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
     </row>
-    <row r="51" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B51" s="6"/>
-      <c r="C51" s="9"/>
+      <c r="C51" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
     </row>
-    <row r="52" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B52" s="6"/>
-      <c r="C52" s="9"/>
+      <c r="C52" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
     </row>
-    <row r="53" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B53" s="6"/>
-      <c r="C53" s="9"/>
+      <c r="C53" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
     </row>
-    <row r="54" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B54" s="6"/>
-      <c r="C54" s="9"/>
+      <c r="C54" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
     </row>
-    <row r="55" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B55" s="6"/>
-      <c r="C55" s="9"/>
+      <c r="C55" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
     </row>
-    <row r="56" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B56" s="6"/>
-      <c r="C56" s="9"/>
+      <c r="C56" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
     </row>
-    <row r="57" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B57" s="6"/>
-      <c r="C57" s="9"/>
+      <c r="C57" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
     </row>
-    <row r="58" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B58" s="6"/>
-      <c r="C58" s="9"/>
+      <c r="C58" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
     </row>
-    <row r="59" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B59" s="6"/>
-      <c r="C59" s="9"/>
+      <c r="C59" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
     </row>
-    <row r="60" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B60" s="6"/>
-      <c r="C60" s="9"/>
+      <c r="C60" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
     </row>
-    <row r="61" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B61" s="6"/>
-      <c r="C61" s="9"/>
+      <c r="C61" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
     </row>
-    <row r="62" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B62" s="6"/>
-      <c r="C62" s="9"/>
+      <c r="C62" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
     </row>
-    <row r="63" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B63" s="6"/>
-      <c r="C63" s="9"/>
+      <c r="C63" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
     </row>
-    <row r="64" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B64" s="6"/>
-      <c r="C64" s="9"/>
+      <c r="C64" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
     </row>
-    <row r="65" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B65" s="6"/>
-      <c r="C65" s="9"/>
+      <c r="C65" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
     </row>
-    <row r="66" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B66" s="6"/>
-      <c r="C66" s="9"/>
+      <c r="C66" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
     </row>
-    <row r="67" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B67" s="6"/>
-      <c r="C67" s="9"/>
+      <c r="C67" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
     </row>
-    <row r="68" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B68" s="6"/>
-      <c r="C68" s="9"/>
+      <c r="C68" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
     </row>
-    <row r="69" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B69" s="6"/>
-      <c r="C69" s="9"/>
+      <c r="C69" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
     </row>
-    <row r="70" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B70" s="6"/>
-      <c r="C70" s="9"/>
+      <c r="C70" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B71" s="6"/>
-      <c r="C71" s="9"/>
+      <c r="C71" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
     </row>
-    <row r="72" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B72" s="6"/>
-      <c r="C72" s="9"/>
+      <c r="C72" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
     </row>
-    <row r="73" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B73" s="6"/>
-      <c r="C73" s="9"/>
+      <c r="C73" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
     </row>
-    <row r="74" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B74" s="6"/>
-      <c r="C74" s="9"/>
+      <c r="C74" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
     </row>
-    <row r="75" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B75" s="6"/>
-      <c r="C75" s="9"/>
+      <c r="C75" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
     </row>
-    <row r="76" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B76" s="6"/>
-      <c r="C76" s="9"/>
+      <c r="C76" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
     </row>
-    <row r="77" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B77" s="6"/>
-      <c r="C77" s="9"/>
+      <c r="C77" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
     </row>
-    <row r="78" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B78" s="6"/>
-      <c r="C78" s="9"/>
+      <c r="C78" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
     </row>
-    <row r="79" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B79" s="6"/>
-      <c r="C79" s="9"/>
+      <c r="C79" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
     </row>
-    <row r="80" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B80" s="6"/>
-      <c r="C80" s="9"/>
+      <c r="C80" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
     </row>
-    <row r="81" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B81" s="6"/>
-      <c r="C81" s="9"/>
+      <c r="C81" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
     </row>
-    <row r="82" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B82" s="6"/>
-      <c r="C82" s="9"/>
+      <c r="C82" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
-    <row r="83" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B83" s="6"/>
-      <c r="C83" s="9"/>
+      <c r="C83" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
     </row>
-    <row r="84" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B84" s="6"/>
-      <c r="C84" s="9"/>
+      <c r="C84" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
     </row>
-    <row r="85" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B85" s="6"/>
-      <c r="C85" s="9"/>
+      <c r="C85" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
     </row>
-    <row r="86" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B86" s="6"/>
-      <c r="C86" s="9"/>
+      <c r="C86" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
     </row>
-    <row r="87" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B87" s="6"/>
-      <c r="C87" s="9"/>
+      <c r="C87" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
     </row>
-    <row r="88" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B88" s="6"/>
-      <c r="C88" s="9"/>
+      <c r="C88" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
-    <row r="89" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B89" s="6"/>
-      <c r="C89" s="9"/>
+      <c r="C89" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
     </row>
-    <row r="90" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B90" s="6"/>
-      <c r="C90" s="9"/>
+      <c r="C90" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
     </row>
-    <row r="91" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B91" s="6"/>
-      <c r="C91" s="9"/>
+      <c r="C91" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
     </row>
-    <row r="92" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B92" s="6"/>
-      <c r="C92" s="9"/>
+      <c r="C92" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
     </row>
-    <row r="93" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B93" s="6"/>
-      <c r="C93" s="9"/>
+      <c r="C93" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
     </row>
-    <row r="94" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B94" s="6"/>
-      <c r="C94" s="9"/>
+      <c r="C94" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
     </row>
-    <row r="95" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B95" s="6"/>
-      <c r="C95" s="9"/>
+      <c r="C95" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
     </row>
-    <row r="96" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B96" s="6"/>
-      <c r="C96" s="9"/>
+      <c r="C96" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
     </row>
-    <row r="97" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B97" s="6"/>
-      <c r="C97" s="9"/>
+      <c r="C97" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B98" s="6"/>
-      <c r="C98" s="9"/>
+      <c r="C98" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
     </row>
-    <row r="99" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B99" s="6"/>
-      <c r="C99" s="9"/>
+      <c r="C99" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
     </row>
-    <row r="100" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B100" s="6"/>
-      <c r="C100" s="9"/>
+      <c r="C100" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
     </row>
-    <row r="101" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B101" s="6"/>
-      <c r="C101" s="9"/>
+      <c r="C101" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B102" s="6"/>
-      <c r="C102" s="9"/>
+      <c r="C102" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
     </row>
-    <row r="103" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B103" s="6"/>
-      <c r="C103" s="9"/>
+      <c r="C103" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
     </row>
-    <row r="104" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B104" s="6"/>
-      <c r="C104" s="9"/>
+      <c r="C104" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
     </row>
-    <row r="105" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B105" s="6"/>
-      <c r="C105" s="9"/>
+      <c r="C105" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
     </row>
-    <row r="106" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B106" s="6"/>
-      <c r="C106" s="9"/>
+      <c r="C106" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
     </row>
-    <row r="107" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B107" s="6"/>
-      <c r="C107" s="9"/>
+      <c r="C107" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
     </row>
-    <row r="108" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B108" s="6"/>
-      <c r="C108" s="9"/>
+      <c r="C108" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
     </row>
-    <row r="109" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B109" s="6"/>
-      <c r="C109" s="9"/>
+      <c r="C109" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
     </row>
-    <row r="110" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B110" s="6"/>
-      <c r="C110" s="9"/>
+      <c r="C110" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
     </row>
-    <row r="111" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B111" s="6"/>
-      <c r="C111" s="9"/>
+      <c r="C111" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
     </row>
-    <row r="112" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B112" s="6"/>
-      <c r="C112" s="9"/>
+      <c r="C112" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
     </row>
-    <row r="113" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B113" s="6"/>
-      <c r="C113" s="9"/>
+      <c r="C113" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
     </row>
-    <row r="114" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B114" s="6"/>
-      <c r="C114" s="9"/>
+      <c r="C114" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
     </row>
-    <row r="115" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B115" s="6"/>
-      <c r="C115" s="9"/>
+      <c r="C115" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
     </row>
-    <row r="116" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B116" s="6"/>
-      <c r="C116" s="9"/>
+      <c r="C116" s="12" t="s">
+        <v>131</v>
+      </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
     </row>
-    <row r="117" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="10"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="11" t="s">
+    <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B117" s="6"/>
+      <c r="C117" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+    </row>
+    <row r="118" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118" s="6"/>
+      <c r="C118" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+    </row>
+    <row r="119" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="9"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E117" s="11" t="s">
+      <c r="E119" s="10" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="40" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="12" t="s">
+    <row r="120" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="11" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="3" t="s">
+    <row r="122" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B122" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C122" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D120" s="4" t="s">
+      <c r="D122" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="E122" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="5" t="s">
+    <row r="123" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A123" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B123" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C121" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="8" t="n">
+      <c r="C123" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="8">
         <v>44762</v>
       </c>
-      <c r="E121" s="8" t="n">
+      <c r="E123" s="8">
         <v>44770</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="5" t="s">
+    <row r="124" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A124" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B124" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C122" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="8" t="n">
+      <c r="C124" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="8">
         <v>44762</v>
       </c>
-      <c r="E122" s="8" t="n">
+      <c r="E124" s="8">
         <v>44770</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="5" t="s">
+    <row r="125" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A125" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B125" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C123" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="8" t="n">
+      <c r="C125" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="8">
         <v>44762</v>
       </c>
-      <c r="E123" s="8" t="n">
+      <c r="E125" s="8">
         <v>44770</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="5" t="s">
+    <row r="126" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A126" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B126" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C124" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="8" t="n">
+      <c r="C126" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="8">
         <v>44762</v>
       </c>
-      <c r="E124" s="8" t="n">
+      <c r="E126" s="8">
         <v>44770</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="5" t="s">
+    <row r="127" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A127" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B127" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C125" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="8" t="n">
+      <c r="C127" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="8">
         <v>44762</v>
       </c>
-      <c r="E125" s="8" t="n">
+      <c r="E127" s="8">
         <v>44770</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="5" t="s">
+    <row r="128" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A128" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B128" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C126" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="8" t="n">
+      <c r="C128" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="8">
         <v>44762</v>
       </c>
-      <c r="E126" s="8" t="n">
+      <c r="E128" s="8">
         <v>44770</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="5" t="s">
+    <row r="129" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A129" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B129" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C127" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="8" t="n">
+      <c r="C129" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="8">
         <v>44762</v>
       </c>
-      <c r="E127" s="8" t="n">
+      <c r="E129" s="8">
         <v>44770</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="5" t="s">
+    <row r="130" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A130" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B128" s="6" t="s">
+      <c r="B130" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C128" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="8" t="n">
+      <c r="C130" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="8">
         <v>44762</v>
       </c>
-      <c r="E128" s="8" t="n">
+      <c r="E130" s="8">
         <v>44770</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="5" t="s">
+    <row r="131" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A131" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B129" s="6" t="s">
+      <c r="B131" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C129" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="8" t="n">
+      <c r="C131" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="8">
         <v>44762</v>
       </c>
-      <c r="E129" s="8" t="n">
+      <c r="E131" s="8">
         <v>44770</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="5" t="s">
+    <row r="132" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A132" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B132" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C130" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="8" t="n">
+      <c r="C132" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="8">
         <v>44762</v>
       </c>
-      <c r="E130" s="8" t="n">
+      <c r="E132" s="8">
         <v>44770</v>
       </c>
     </row>
+    <row r="134" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A134" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="8">
+        <v>44770</v>
+      </c>
+      <c r="E136" s="8">
+        <v>44779</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="8">
+        <v>44770</v>
+      </c>
+      <c r="E137" s="8">
+        <v>44779</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="8">
+        <v>44770</v>
+      </c>
+      <c r="E138" s="8">
+        <v>44779</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="8">
+        <v>44771</v>
+      </c>
+      <c r="E139" s="8">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D140" s="8">
+        <v>44771</v>
+      </c>
+      <c r="E140" s="8">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D141" s="8">
+        <v>44771</v>
+      </c>
+      <c r="E141" s="8">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D142" s="8">
+        <v>44771</v>
+      </c>
+      <c r="E142" s="8">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D143" s="8">
+        <v>44771</v>
+      </c>
+      <c r="E143" s="8">
+        <v>44777</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>